--- a/data/trans_camb/P08_2_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P08_2_R-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-4.408842608604433</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-3.339118693077839</v>
+        <v>-3.339118693077841</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.6509989544072892</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.440901649887636</v>
+        <v>-3.156371441015117</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.304799394398512</v>
+        <v>-4.270931154076055</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.288338210268741</v>
+        <v>-6.913840197806116</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.665372279376589</v>
+        <v>-9.562602206826995</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-10.29540630147901</v>
+        <v>-9.436434592113121</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-8.51050040166146</v>
+        <v>-8.413356013036163</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.290004848342654</v>
+        <v>-4.051065693023615</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.277365481912169</v>
+        <v>-5.189490093278526</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-5.645351242734075</v>
+        <v>-5.713309267141616</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.396698822525897</v>
+        <v>6.352023064716768</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.30894850567865</v>
+        <v>3.976926383768708</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9426800438348357</v>
+        <v>1.028294989529118</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.462814390110113</v>
+        <v>2.260593472115909</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.222204911504868</v>
+        <v>1.719898193039561</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.346090706129701</v>
+        <v>1.263917358203173</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.640449422179286</v>
+        <v>3.010215661394342</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.408135850611555</v>
+        <v>2.100796305341567</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4127757804867954</v>
+        <v>0.1231799197455565</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.2773319407713717</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2100424872981282</v>
+        <v>-0.2100424872981284</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.04952879295337154</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1916611576087125</v>
+        <v>-0.2233442755798602</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3204324428976374</v>
+        <v>-0.3288931521426141</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4548769643507075</v>
+        <v>-0.4837292241898188</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5153995093981335</v>
+        <v>-0.4984395715395697</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5535443823902945</v>
+        <v>-0.5102126298216434</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4270714495952992</v>
+        <v>-0.4226097447978447</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2956501663351747</v>
+        <v>-0.2804821713227192</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3513705033459714</v>
+        <v>-0.3449855300537426</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3762474351341111</v>
+        <v>-0.3744580563614646</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7085957686172294</v>
+        <v>0.7087939877583479</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4714954051865031</v>
+        <v>0.4098900665139169</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1054077498747132</v>
+        <v>0.1211235770195255</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1154944770637103</v>
+        <v>0.1981731715187562</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09438637666649025</v>
+        <v>0.1733104127082386</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1264982704977936</v>
+        <v>0.1142601680334695</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2336867095802457</v>
+        <v>0.2542153317772807</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1222895765082763</v>
+        <v>0.1868006511332409</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.03081388834178634</v>
+        <v>0.01338783176773923</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.880694508273084</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.786227618625207</v>
+        <v>2.786227618625206</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3.119968023472936</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.326204869662219</v>
+        <v>-2.322126357728192</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.833086807622843</v>
+        <v>-2.328727417200569</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.249098822423125</v>
+        <v>-1.811873617853526</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8880468865077061</v>
+        <v>-1.551344135151623</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.4756357308676837</v>
+        <v>0.053868179050089</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.320978987333652</v>
+        <v>2.711144423350871</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.4865660442532879</v>
+        <v>-0.173697378296132</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.1976230375809318</v>
+        <v>0.09640237161773858</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.912951725109977</v>
+        <v>1.959898989239545</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.708063442921445</v>
+        <v>6.387856222475493</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.581313498671205</v>
+        <v>6.487030070696872</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.711017381891407</v>
+        <v>6.946204650473624</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.611972056697342</v>
+        <v>8.136009925007576</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.949749859219772</v>
+        <v>9.089519499530645</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.48235450017302</v>
+        <v>10.61192217969828</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.623324834516821</v>
+        <v>5.906592257177845</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.202568412248753</v>
+        <v>6.414676480780868</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.350477665309556</v>
+        <v>7.752418457607291</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.217160407366029</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.3217206845734428</v>
+        <v>0.3217206845734426</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3873066611922335</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2232099790309778</v>
+        <v>-0.2191994382988499</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.255722699104896</v>
+        <v>-0.2359452492746719</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1103360824237129</v>
+        <v>-0.1606399196006463</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.109260144798914</v>
+        <v>-0.1841272664597139</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05677080612496756</v>
+        <v>-0.008986344857251119</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2004692647635471</v>
+        <v>0.2800717964770457</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05505487166907693</v>
+        <v>-0.01448638434004755</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03703649580580768</v>
+        <v>0.00728423622864259</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1830752814477282</v>
+        <v>0.1791271204366116</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.0397003724692</v>
+        <v>0.9921908925362863</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.017297597259494</v>
+        <v>0.9599634983159976</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.068259863309049</v>
+        <v>1.073715053082817</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.272689352736596</v>
+        <v>1.305059179052948</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.642353127061352</v>
+        <v>1.540170396605171</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.817559838141109</v>
+        <v>1.83606095382736</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.79855519757903</v>
+        <v>0.8930821913787987</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.901955535949107</v>
+        <v>0.8923953702484128</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.108150798842426</v>
+        <v>1.135610208357868</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>2.815110642875146</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.920434417103682</v>
+        <v>3.92043441710368</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.936587351814723</v>
+        <v>1.304339178034465</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.163459800108325</v>
+        <v>-1.714304366082426</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.8165968096983491</v>
+        <v>-0.08143606541831808</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.585900116604736</v>
+        <v>-5.143644580608394</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.075801406527568</v>
+        <v>-6.942520696209113</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.50724541900246</v>
+        <v>-6.505410173210628</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.482971149876343</v>
+        <v>1.100625088076959</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.12350614410026</v>
+        <v>-1.059477320152033</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0587607004126257</v>
+        <v>0.1272134171408204</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.990151270986946</v>
+        <v>10.15499890420477</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.163481487023827</v>
+        <v>6.95488731631368</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.031243942610484</v>
+        <v>8.654600981528072</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.06978453092796</v>
+        <v>12.15899893329818</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>12.81793658138344</v>
+        <v>13.29320330711445</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.22644949317809</v>
+        <v>10.53391923265514</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.516774325696474</v>
+        <v>9.166713913641757</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.300114827210102</v>
+        <v>6.699147761268201</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.594316644095985</v>
+        <v>7.58627086034923</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.1825205314816858</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2541853107123481</v>
+        <v>0.254185310712348</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.05681366544797732</v>
+        <v>0.07567135844158478</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.08638842806226789</v>
+        <v>-0.1223686056356323</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.05249804993642166</v>
+        <v>-0.008050170212277339</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2084361505668368</v>
+        <v>-0.1802425470697514</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2570897865529701</v>
+        <v>-0.2487530927896596</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1928200161172244</v>
+        <v>-0.222040540686823</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0918175223034594</v>
+        <v>0.05975048738204836</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.06465967068274826</v>
+        <v>-0.05906056492839715</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.007706655275894315</v>
+        <v>0.00791677762989477</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8970807283157682</v>
+        <v>0.9331035481551346</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6762874016998794</v>
+        <v>0.6237734585464387</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7388171661140887</v>
+        <v>0.792627482135873</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6566140856177357</v>
+        <v>0.6440783847324471</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.693411676213712</v>
+        <v>0.7076834645415282</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5620961796138717</v>
+        <v>0.5647623321827568</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7103434146761806</v>
+        <v>0.6680256611495677</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4530866580967062</v>
+        <v>0.4889021007818289</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.572078299877615</v>
+        <v>0.5730965660575594</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-3.250572275867111</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-1.396688594946316</v>
+        <v>-1.396688594946313</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.36933081867268</v>
+        <v>-3.422224338688352</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.373851277446395</v>
+        <v>-5.405910172142416</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.939912528965085</v>
+        <v>-2.704282716019477</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.147417003772246</v>
+        <v>-8.219817157017269</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-8.585548358925877</v>
+        <v>-8.922800868208457</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.477944733749633</v>
+        <v>-7.636277351075295</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.21992905173479</v>
+        <v>-4.425494923633855</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.519898811823447</v>
+        <v>-5.708255982496839</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.748880445666021</v>
+        <v>-3.919135341710768</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.959838812884761</v>
+        <v>2.996501033989994</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7476287577990773</v>
+        <v>1.017336065162051</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.385866017275791</v>
+        <v>3.508161789642446</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.2490413615092844</v>
+        <v>0.04325274310069864</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.8299128153904725</v>
+        <v>-0.6884715005744254</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.5552730982782997</v>
+        <v>-0.0844185784060669</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7505919186028135</v>
+        <v>0.5565134508394177</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.033522862255499</v>
+        <v>-0.85273566511537</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9593365544699913</v>
+        <v>0.8424351616595271</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.1688208732036265</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.07253805428137562</v>
+        <v>-0.07253805428137548</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1665250740955952</v>
+        <v>-0.1676285649566662</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2687742481555692</v>
+        <v>-0.2666773999298315</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1476304854021538</v>
+        <v>-0.1344930312072146</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3660875714484206</v>
+        <v>-0.3722911593392271</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3839826694024883</v>
+        <v>-0.4021384216481871</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.331734770877604</v>
+        <v>-0.3409646818939473</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2040054997348702</v>
+        <v>-0.211765459776378</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2735013407530694</v>
+        <v>-0.2822908934515092</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1803474904310172</v>
+        <v>-0.1878458125697183</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1666640031316297</v>
+        <v>0.1666420319625311</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.04313497051745831</v>
+        <v>0.05742216771218787</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1991153852035756</v>
+        <v>0.2011777580020447</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.007969216252729864</v>
+        <v>0.001510797447201427</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.04637233201431441</v>
+        <v>-0.04179719894073263</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.03179820595281347</v>
+        <v>-0.002164837536212695</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04349373846481853</v>
+        <v>0.031264570546761</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.05933625635678513</v>
+        <v>-0.04846768231516288</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.05432972940152852</v>
+        <v>0.04542636837861126</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>4.224505753419875</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.766485833161386</v>
+        <v>2.766485833161383</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>12.39490481050265</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.743273659948022</v>
+        <v>-4.479737871149223</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.139993678281356</v>
+        <v>-0.2414885180784161</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.55877844147092</v>
+        <v>-2.60831889727919</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7.61503331520533</v>
+        <v>7.619739950380959</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.870212214575539</v>
+        <v>2.730393377161532</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.166925072952061</v>
+        <v>4.193597611232266</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.258363991620958</v>
+        <v>4.053620830801368</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.065336342197265</v>
+        <v>2.423030810334704</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.623604775945705</v>
+        <v>2.480601166875592</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.636082461506501</v>
+        <v>6.11155384497769</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.707252862538882</v>
+        <v>9.438722879346267</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.468129917686145</v>
+        <v>7.315066590530972</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.49166952967707</v>
+        <v>17.21944782801154</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>12.361241582413</v>
+        <v>12.57006727428995</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>12.59226130386944</v>
+        <v>12.72175157254838</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.37520617440693</v>
+        <v>10.89912815011751</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.063387451903857</v>
+        <v>9.33642895893731</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>9.102326939900813</v>
+        <v>9.016827590155511</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2616814311324631</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1713663122468953</v>
+        <v>0.1713663122468951</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.596710895631556</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2022747442334243</v>
+        <v>-0.2273626460779642</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.06100894724876613</v>
+        <v>-0.01951455894158503</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1370731420670555</v>
+        <v>-0.1363163482320646</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.313275471115852</v>
+        <v>0.3240845153348921</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1110174049090887</v>
+        <v>0.116342819339275</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1769184510822697</v>
+        <v>0.1738285169039195</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2015513558487778</v>
+        <v>0.192342795825098</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1003580081040135</v>
+        <v>0.1056495273960184</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.123951442829532</v>
+        <v>0.1209961112848866</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4912478225827696</v>
+        <v>0.4740498674230206</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7626085470395817</v>
+        <v>0.7187782704245128</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.557376282037528</v>
+        <v>0.5370302363677317</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.9452375858053469</v>
+        <v>0.9417441359903987</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6601211054347308</v>
+        <v>0.68938636822785</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7212965462882459</v>
+        <v>0.6991748042703106</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6589692315614957</v>
+        <v>0.6362666007072676</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.529860743446699</v>
+        <v>0.5365650815420703</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5404145247062206</v>
+        <v>0.5354064369300658</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>-1.778786655059428</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-1.190074505884908</v>
+        <v>-1.190074505884914</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.587169042567421</v>
+        <v>-2.280633400337421</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.10408458817432</v>
+        <v>-4.113031510302558</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.587737347521824</v>
+        <v>-3.912989859803765</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.9404103131397797</v>
+        <v>-0.9230784357397874</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.88422539851835</v>
+        <v>-5.670869277704695</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.870237114197207</v>
+        <v>-4.141735386759757</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.7657437821325224</v>
+        <v>-0.7525258333441571</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-5.157567727664873</v>
+        <v>-4.828814834256414</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-4.436586276094419</v>
+        <v>-4.446860143213532</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.875964729218965</v>
+        <v>4.052035873739873</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.186477619794032</v>
+        <v>1.285747919954646</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.456325371005977</v>
+        <v>1.513566980787995</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.362823705060332</v>
+        <v>7.276712735140134</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.869892313295449</v>
+        <v>2.638027357960878</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.753121753599439</v>
+        <v>3.564092914587616</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.613053197069735</v>
+        <v>5.603212828510198</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.339806698142107</v>
+        <v>1.285392732436905</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.129288167643273</v>
+        <v>1.990274486419474</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>-0.06624418021585476</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.04431982318615964</v>
+        <v>-0.04431982318615985</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5815212839467718</v>
+        <v>-0.5290709675885458</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8381743790331155</v>
+        <v>-0.8291401890346272</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7767560526402033</v>
+        <v>-0.7817782154776485</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.03003532287043287</v>
+        <v>-0.02716508572994732</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1430142385539356</v>
+        <v>-0.1617675502454874</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1142717016573217</v>
+        <v>-0.1228398863135473</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.02769728795557105</v>
+        <v>-0.02444308503322469</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1797093345952779</v>
+        <v>-0.1722165166185398</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1568458503922631</v>
+        <v>-0.1572814352867193</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.715404458052729</v>
+        <v>1.965711864438049</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.5928753799833092</v>
+        <v>0.6846204375215386</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.7061566430985657</v>
+        <v>0.8112576939911702</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2397363265002668</v>
+        <v>0.2371450348619896</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.09778652982980821</v>
+        <v>0.08790943812082828</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1231579146557379</v>
+        <v>0.1172348208199068</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2235634811652706</v>
+        <v>0.2235739852303432</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.0533535885783254</v>
+        <v>0.05329815611871475</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.08241486532769465</v>
+        <v>0.07993844202004913</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>0.6047458722568011</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.9404955077780663</v>
+        <v>0.9404955077780636</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>2.462055243745565</v>
@@ -1948,7 +1948,7 @@
         <v>0.05831738866153846</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.2581092837953519</v>
+        <v>0.2581092837953547</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.0232143201079907</v>
+        <v>-0.2303398703146698</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.052871538836359</v>
+        <v>-1.136441256854389</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.8020659513043923</v>
+        <v>-0.6957854180592109</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.3213358327037397</v>
+        <v>0.4524408137712045</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.559846876678336</v>
+        <v>-2.626110703680576</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.240096856807087</v>
+        <v>-2.269185405615553</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.6628586150402355</v>
+        <v>0.6402566259787184</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.329577020624466</v>
+        <v>-1.317108310805152</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.9539506914415689</v>
+        <v>-0.8463643543206066</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.417923323258407</v>
+        <v>3.373809522794653</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.233024334395052</v>
+        <v>2.212879441811035</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.649460283743551</v>
+        <v>2.755959527233981</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.454933341856654</v>
+        <v>4.422183340313933</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.526328168117958</v>
+        <v>1.626081324480237</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.360738250057919</v>
+        <v>1.393202260145998</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.553648273287957</v>
+        <v>3.591602470793493</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.525108018007431</v>
+        <v>1.416342209210948</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.40021049340015</v>
+        <v>1.496485479169314</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.04342473129250988</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.06753376348757023</v>
+        <v>0.06753376348757002</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1060149094721217</v>
@@ -2053,7 +2053,7 @@
         <v>0.003126861321829276</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.01383930170448497</v>
+        <v>0.01383930170448512</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.004117440569096611</v>
+        <v>-0.01665247863339502</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.06882315460972882</v>
+        <v>-0.07635885340869383</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.05463918066157516</v>
+        <v>-0.04797726137118272</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.01247509415107065</v>
+        <v>0.0192920923453715</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1063202984922858</v>
+        <v>-0.1075018768953592</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.09291953776350857</v>
+        <v>-0.09462112055346673</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03460951565575333</v>
+        <v>0.03286105354577441</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.06862127133968393</v>
+        <v>-0.06702247827647823</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.04914238615260132</v>
+        <v>-0.04408483562962436</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2598170746096335</v>
+        <v>0.2589565279720555</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1718449470251179</v>
+        <v>0.1657549219058711</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.2027752708969706</v>
+        <v>0.2122606312091635</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2024200952940841</v>
+        <v>0.1997251350338503</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.0705382217216534</v>
+        <v>0.07272838942244129</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.06114417545302742</v>
+        <v>0.06274599769645438</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1968533261844437</v>
+        <v>0.1994168688331549</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.0852159541818754</v>
+        <v>0.07873111162324943</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.0780554235181616</v>
+        <v>0.08365936646304283</v>
       </c>
     </row>
     <row r="46">
